--- a/data/Liste des BDD locales existantes.xlsx
+++ b/data/Liste des BDD locales existantes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="696">
   <si>
     <t xml:space="preserve">Accès Open Data</t>
   </si>
@@ -207,7 +207,22 @@
     <t xml:space="preserve">BDD Bourgogne Franche Comté</t>
   </si>
   <si>
-    <t>Margot</t>
+    <t>http://umap.openstreetmap.fr/fr/map/les-lieux-de-la-transition-numerique-en-bourgogne-_179564#8/47.165/5.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDD Siilab Hauts-de-France</t>
+  </si>
+  <si>
+    <t>http://hauts-de-france.drjscs.gouv.fr/spip.php?article1793</t>
+  </si>
+  <si>
+    <t>Fichier</t>
+  </si>
+  <si>
+    <t>drjscs-hdf-appui-aux-politiques@drjscs.gouv.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en attente retour</t>
   </si>
   <si>
     <t xml:space="preserve">BDD Occitanie Fablab</t>
@@ -223,18 +238,6 @@
   </si>
   <si>
     <t>tierslieux@laregion.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en attente retour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDD Siilab Hauts-de-France</t>
-  </si>
-  <si>
-    <t>http://hauts-de-france.drjscs.gouv.fr/spip.php?article1793</t>
-  </si>
-  <si>
-    <t>drjscs-hdf-appui-aux-politiques@drjscs.gouv.fr</t>
   </si>
   <si>
     <t xml:space="preserve">BDD Grenoble Solidarités </t>
@@ -3478,7 +3481,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.140625"/>
     <col customWidth="1" min="2" max="2" width="46.140625"/>
-    <col customWidth="1" min="3" max="3" width="14.4609375"/>
+    <col customWidth="1" min="3" max="3" width="16.421875"/>
     <col customWidth="1" min="4" max="4" width="18.8125"/>
     <col customWidth="1" min="5" max="6" width="23.28125"/>
     <col bestFit="1" customWidth="1" min="7" max="7" width="43.47265625"/>
@@ -3923,56 +3926,52 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row ht="15" r="23">
-      <c r="A23" s="0" t="s">
+    <row customFormat="1" ht="15" r="23" s="11">
+      <c r="A23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
     <row ht="15" r="24">
-      <c r="D24" s="4"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row customFormat="1" ht="15" r="25" s="12">
-      <c r="A25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="14">
-        <v>5</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="I24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    </row>
+    <row customFormat="1" ht="15" r="25" s="11"/>
     <row customFormat="1" ht="15" r="26" s="12">
       <c r="A26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="D26" s="14">
         <v>5</v>
@@ -3980,68 +3979,70 @@
       <c r="G26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="27" s="12">
       <c r="A27" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D27" s="14">
         <v>4</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="28" s="12">
       <c r="A28" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D28" s="14">
         <v>4</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="29" s="12">
       <c r="A29" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D29" s="14">
         <v>2</v>
@@ -4052,99 +4053,99 @@
     </row>
     <row customFormat="1" ht="15" r="30" s="12">
       <c r="A30" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D30" s="14">
         <v>4</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="31" s="12">
       <c r="A31" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D31" s="14">
         <v>4</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="32" s="12">
       <c r="A32" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D32" s="14">
         <v>5</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" ht="15" r="33" s="12">
       <c r="A33" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="14">
         <v>3</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row ht="15" r="34"/>
@@ -4184,22 +4185,23 @@
     <hyperlink r:id="rId29" ref="B21"/>
     <hyperlink r:id="rId12" ref="H21"/>
     <hyperlink r:id="rId30" ref="B22"/>
-    <hyperlink r:id="rId31" ref="B25"/>
-    <hyperlink r:id="rId32" ref="G25" tooltip=""/>
-    <hyperlink r:id="rId33" ref="H25" tooltip=""/>
+    <hyperlink r:id="rId31" ref="B23"/>
+    <hyperlink r:id="rId32" ref="B24"/>
+    <hyperlink r:id="rId33" ref="G24"/>
     <hyperlink r:id="rId34" ref="B26"/>
-    <hyperlink r:id="rId35" ref="G26"/>
-    <hyperlink r:id="rId36" ref="B27"/>
-    <hyperlink r:id="rId37" ref="G27"/>
-    <hyperlink r:id="rId38" ref="B28"/>
-    <hyperlink r:id="rId39" ref="G28" tooltip="Envoyer un mail à Rémi Mestre"/>
-    <hyperlink r:id="rId40" ref="B29"/>
-    <hyperlink r:id="rId41" ref="B30"/>
-    <hyperlink r:id="rId42" ref="B31"/>
-    <hyperlink r:id="rId43" ref="G31"/>
-    <hyperlink r:id="rId44" ref="B32"/>
-    <hyperlink r:id="rId45" ref="I32"/>
-    <hyperlink r:id="rId46" ref="B33"/>
+    <hyperlink r:id="rId35" ref="G26" tooltip=""/>
+    <hyperlink r:id="rId36" ref="H26" tooltip=""/>
+    <hyperlink r:id="rId37" ref="B27"/>
+    <hyperlink r:id="rId38" ref="G27"/>
+    <hyperlink r:id="rId39" ref="B28"/>
+    <hyperlink r:id="rId40" ref="G28" tooltip="Envoyer un mail à Rémi Mestre"/>
+    <hyperlink r:id="rId41" ref="B29"/>
+    <hyperlink r:id="rId42" ref="B30"/>
+    <hyperlink r:id="rId43" ref="B31"/>
+    <hyperlink r:id="rId44" ref="G31"/>
+    <hyperlink r:id="rId45" ref="B32"/>
+    <hyperlink r:id="rId46" ref="I32"/>
+    <hyperlink r:id="rId47" ref="B33"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
@@ -4262,35 +4264,35 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="25"/>
       <c r="M1" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O1" s="25"/>
       <c r="P1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="25"/>
       <c r="R1" s="25" t="s">
@@ -4312,13 +4314,13 @@
         <v>25</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="25" t="s">
         <v>33</v>
@@ -4336,56 +4338,56 @@
         <v>39</v>
       </c>
       <c r="AF1" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG1" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="AI1" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ1" s="25"/>
     </row>
     <row customFormat="1" ht="24" customHeight="1" r="2" s="9">
       <c r="A2" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="33"/>
       <c r="J2" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" s="33"/>
       <c r="O2" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R2" s="36" t="s">
         <v>15</v>
@@ -4422,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="AF2" s="37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="39" t="s">
         <v>57</v>
@@ -4432,116 +4434,116 @@
       </c>
       <c r="AI2" s="33"/>
       <c r="AJ2" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row customFormat="1" ht="24" customHeight="1" r="3" s="9">
       <c r="A3" s="41"/>
       <c r="E3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI3" s="33"/>
       <c r="AJ3" s="43"/>
     </row>
     <row ht="45" r="4">
       <c r="A4" s="44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R4" s="49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S4" s="48"/>
       <c r="T4" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U4" s="48"/>
       <c r="V4" s="49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W4" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X4" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y4" s="48"/>
       <c r="Z4" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA4" s="50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB4" s="50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC4" s="48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="48"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG4" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH4" s="50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI4" s="48"/>
       <c r="AJ4" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row ht="45" r="5">
       <c r="A5" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="49"/>
@@ -4573,1166 +4575,1166 @@
       <c r="AH5" s="50"/>
       <c r="AI5" s="48"/>
       <c r="AJ5" s="49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="60.75" customHeight="1" r="6">
       <c r="A6" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="R6" s="49" t="s">
         <v>148</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>147</v>
       </c>
       <c r="S6" s="48"/>
       <c r="T6" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W6" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X6" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y6" s="48"/>
       <c r="Z6" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB6" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC6" s="48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD6" s="48"/>
       <c r="AE6" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF6" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG6" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH6" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI6" s="48"/>
       <c r="AJ6" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row ht="45" customHeight="1" r="7">
       <c r="A7" s="51"/>
       <c r="B7" s="45"/>
       <c r="C7" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P7" s="53"/>
       <c r="Q7" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S7" s="53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W7" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X7" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y7" s="48"/>
       <c r="Z7" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA7" s="50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB7" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC7" s="48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD7" s="48"/>
       <c r="AE7" s="49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF7" s="54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG7" s="50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AH7" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AI7" s="48"/>
       <c r="AJ7" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="45" r="8">
       <c r="A8" s="51"/>
       <c r="B8" s="45"/>
       <c r="C8" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N8" s="53"/>
       <c r="O8" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P8" s="53"/>
       <c r="Q8" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S8" s="53"/>
       <c r="T8" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U8" s="48"/>
       <c r="V8" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W8" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X8" s="49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y8" s="48"/>
       <c r="Z8" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA8" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB8" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="48" t="s">
         <v>186</v>
-      </c>
-      <c r="AC8" s="48" t="s">
-        <v>185</v>
       </c>
       <c r="AD8" s="48"/>
       <c r="AE8" s="49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF8" s="19"/>
       <c r="AG8" s="50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AH8" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AI8" s="48"/>
       <c r="AJ8" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row ht="45" r="9">
       <c r="A9" s="51"/>
       <c r="B9" s="45"/>
       <c r="C9" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P9" s="53"/>
       <c r="Q9" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S9" s="53"/>
       <c r="T9" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U9" s="48"/>
       <c r="V9" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W9" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X9" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y9" s="48"/>
       <c r="Z9" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA9" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB9" s="50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC9" s="48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD9" s="48"/>
       <c r="AE9" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH9" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI9" s="48"/>
       <c r="AJ9" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row ht="105" r="10">
       <c r="A10" s="51"/>
       <c r="B10" s="45"/>
       <c r="C10" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10" s="53"/>
       <c r="L10" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N10" s="53"/>
       <c r="O10" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S10" s="53"/>
       <c r="T10" s="49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W10" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X10" s="49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y10" s="48"/>
       <c r="Z10" s="49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA10" s="50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC10" s="55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD10" s="48"/>
       <c r="AE10" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH10" s="50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI10" s="48"/>
       <c r="AJ10" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row ht="45" r="11">
       <c r="A11" s="51"/>
       <c r="B11" s="45"/>
       <c r="C11" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" s="53"/>
       <c r="L11" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N11" s="53"/>
       <c r="O11" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S11" s="53"/>
       <c r="T11" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U11" s="53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W11" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X11" s="49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y11" s="48"/>
       <c r="Z11" s="49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA11" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="48"/>
       <c r="AE11" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH11" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI11" s="48"/>
       <c r="AJ11" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row ht="60" r="12">
       <c r="A12" s="51"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P12" s="53"/>
       <c r="Q12" s="49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R12" s="56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S12" s="53"/>
       <c r="T12" s="49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U12" s="53"/>
       <c r="V12" s="49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W12" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="X12" s="49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA12" s="50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="48"/>
       <c r="AE12" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH12" s="50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI12" s="48"/>
       <c r="AJ12" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row ht="105" r="13">
       <c r="A13" s="51"/>
       <c r="B13" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" s="48"/>
       <c r="H13" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N13" s="53"/>
       <c r="O13" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P13" s="53"/>
       <c r="Q13" s="49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S13" s="53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T13" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W13" s="49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X13" s="49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y13" s="48"/>
       <c r="Z13" s="49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA13" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AB13" s="19"/>
       <c r="AC13" s="19"/>
       <c r="AD13" s="48"/>
       <c r="AE13" s="49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI13" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ13" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row ht="60" r="14">
       <c r="A14" s="51"/>
       <c r="B14" s="59"/>
       <c r="C14" s="46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N14" s="53"/>
       <c r="O14" s="49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P14" s="53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S14" s="53"/>
       <c r="T14" s="49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W14" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X14" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y14" s="48"/>
       <c r="Z14" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA14" s="50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB14" s="19"/>
       <c r="AC14" s="19"/>
       <c r="AD14" s="48"/>
       <c r="AE14" s="49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI14" s="53"/>
       <c r="AJ14" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="30" r="15">
       <c r="A15" s="51"/>
       <c r="B15" s="59"/>
       <c r="C15" s="46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N15" s="53"/>
       <c r="O15" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P15" s="53"/>
       <c r="Q15" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S15" s="53"/>
       <c r="T15" s="49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X15" s="49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y15" s="48"/>
       <c r="Z15" s="49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA15" s="50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="48"/>
       <c r="AE15" s="49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row ht="45" r="16">
       <c r="A16" s="51"/>
       <c r="B16" s="59"/>
       <c r="C16" s="52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I16" s="53"/>
       <c r="J16" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P16" s="53"/>
       <c r="Q16" s="49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S16" s="53"/>
       <c r="T16" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U16" s="53"/>
       <c r="V16" s="49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X16" s="56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y16" s="48"/>
       <c r="Z16" s="49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA16" s="50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
       <c r="AD16" s="48"/>
       <c r="AE16" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="53"/>
       <c r="AJ16" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row ht="30" r="17">
       <c r="A17" s="51"/>
       <c r="B17" s="59"/>
       <c r="C17" s="46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G17" s="48"/>
       <c r="H17" s="49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S17" s="53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T17" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U17" s="53"/>
       <c r="V17" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y17" s="55"/>
       <c r="Z17" s="56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA17" s="54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB17" s="19"/>
       <c r="AC17" s="19"/>
       <c r="AD17" s="48"/>
       <c r="AE17" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="53"/>
       <c r="AJ17" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row ht="45" r="18">
       <c r="A18" s="51"/>
       <c r="B18" s="59"/>
       <c r="C18" s="46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I18" s="60"/>
       <c r="J18" s="56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N18" s="53"/>
       <c r="O18" s="49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P18" s="53"/>
       <c r="Q18" s="49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S18" s="53"/>
       <c r="T18" s="49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U18" s="53"/>
       <c r="V18" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="48"/>
       <c r="AE18" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="53"/>
       <c r="AJ18" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row ht="30" r="19">
       <c r="A19" s="51"/>
       <c r="B19" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N19" s="53"/>
       <c r="O19" s="49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P19" s="53"/>
       <c r="Q19" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S19" s="60"/>
       <c r="T19" s="56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U19" s="60"/>
       <c r="V19" s="56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC19" s="19"/>
       <c r="AD19" s="48"/>
       <c r="AE19" s="49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row ht="30" r="20">
       <c r="A20" s="51"/>
       <c r="B20" s="57"/>
       <c r="C20" s="46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="60"/>
       <c r="O20" s="56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P20" s="53"/>
       <c r="Q20" s="49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC20" s="19"/>
       <c r="AD20" s="48"/>
       <c r="AE20" s="49" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="53"/>
       <c r="AJ20" s="49" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row ht="45" r="21">
       <c r="A21" s="51"/>
       <c r="B21" s="57"/>
       <c r="C21" s="46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="53"/>
       <c r="H21" s="49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P21" s="53"/>
       <c r="Q21" s="49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AC21" s="19"/>
       <c r="AD21" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE21" s="49" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="60"/>
       <c r="AJ21" s="56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row ht="45" r="22">
       <c r="A22" s="51"/>
       <c r="B22" s="57"/>
       <c r="C22" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="48"/>
       <c r="H22" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P22" s="53"/>
       <c r="Q22" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC22" s="19"/>
       <c r="AD22" s="53"/>
       <c r="AE22" s="49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
@@ -5741,26 +5743,26 @@
     <row ht="48" customHeight="1" r="23">
       <c r="A23" s="51"/>
       <c r="B23" s="57" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P23" s="53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC23" s="19"/>
       <c r="AD23" s="53"/>
       <c r="AE23" s="49" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
@@ -5770,21 +5772,21 @@
       <c r="A24" s="51"/>
       <c r="B24" s="57"/>
       <c r="C24" s="46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="48"/>
       <c r="H24" s="49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P24" s="53"/>
       <c r="Q24" s="49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC24" s="19"/>
       <c r="AD24" s="53"/>
       <c r="AE24" s="49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
@@ -5793,24 +5795,24 @@
     <row ht="48" r="25">
       <c r="A25" s="51"/>
       <c r="B25" s="62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="48"/>
       <c r="H25" s="49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P25" s="53"/>
       <c r="Q25" s="49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AC25" s="19"/>
       <c r="AD25" s="53"/>
       <c r="AE25" s="49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
@@ -5821,16 +5823,16 @@
       <c r="F26" s="19"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AC26" s="19"/>
       <c r="AD26" s="53"/>
       <c r="AE26" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
@@ -5841,12 +5843,12 @@
       <c r="F27" s="19"/>
       <c r="P27" s="53"/>
       <c r="Q27" s="49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AC27" s="19"/>
       <c r="AD27" s="60"/>
       <c r="AE27" s="56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
@@ -5857,7 +5859,7 @@
       <c r="F28" s="19"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC28" s="19"/>
       <c r="AF28" s="19"/>
@@ -5868,7 +5870,7 @@
       <c r="A29" s="51"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC29" s="19"/>
       <c r="AF29" s="19"/>
@@ -5879,7 +5881,7 @@
       <c r="A30" s="51"/>
       <c r="P30" s="53"/>
       <c r="Q30" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AF30" s="19"/>
@@ -5890,7 +5892,7 @@
       <c r="A31" s="51"/>
       <c r="P31" s="53"/>
       <c r="Q31" s="49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AC31" s="19"/>
       <c r="AF31" s="19"/>
@@ -5901,7 +5903,7 @@
       <c r="A32" s="51"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC32" s="19"/>
       <c r="AF32" s="19"/>
@@ -5912,7 +5914,7 @@
       <c r="A33" s="51"/>
       <c r="P33" s="53"/>
       <c r="Q33" s="49" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AC33" s="19"/>
       <c r="AF33" s="19"/>
@@ -5923,7 +5925,7 @@
       <c r="A34" s="51"/>
       <c r="P34" s="53"/>
       <c r="Q34" s="49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AF34" s="19"/>
@@ -5934,7 +5936,7 @@
       <c r="A35" s="51"/>
       <c r="P35" s="53"/>
       <c r="Q35" s="49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AC35" s="19"/>
       <c r="AF35" s="19"/>
@@ -5945,7 +5947,7 @@
       <c r="A36" s="51"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AC36" s="19"/>
       <c r="AF36" s="19"/>
@@ -5956,7 +5958,7 @@
       <c r="A37" s="51"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC37" s="19"/>
       <c r="AF37" s="19"/>
@@ -5967,7 +5969,7 @@
       <c r="A38" s="51"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AC38" s="19"/>
       <c r="AF38" s="19"/>
@@ -5978,195 +5980,195 @@
       <c r="A39" s="51"/>
       <c r="P39" s="53"/>
       <c r="Q39" s="49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC39" s="19"/>
     </row>
     <row ht="15" r="40">
       <c r="P40" s="53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q40" s="49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC40" s="19"/>
     </row>
     <row ht="15" r="41">
       <c r="P41" s="53"/>
       <c r="Q41" s="49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC41" s="19"/>
     </row>
     <row ht="15" r="42">
       <c r="P42" s="53"/>
       <c r="Q42" s="49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AC42" s="19"/>
     </row>
     <row ht="15" r="43">
       <c r="P43" s="53"/>
       <c r="Q43" s="49" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AC43" s="19"/>
     </row>
     <row ht="15" r="44">
       <c r="P44" s="53"/>
       <c r="Q44" s="49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AC44" s="19"/>
     </row>
     <row ht="15" r="45">
       <c r="P45" s="53"/>
       <c r="Q45" s="49" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC45" s="19"/>
     </row>
     <row ht="15" r="46">
       <c r="P46" s="53"/>
       <c r="Q46" s="49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC46" s="19"/>
     </row>
     <row ht="15" r="47">
       <c r="P47" s="53"/>
       <c r="Q47" s="49" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC47" s="19"/>
     </row>
     <row ht="15" r="48">
       <c r="P48" s="53"/>
       <c r="Q48" s="49" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AC48" s="19"/>
     </row>
     <row ht="15" r="49">
       <c r="P49" s="53"/>
       <c r="Q49" s="49" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AC49" s="19"/>
     </row>
     <row ht="15" r="50">
       <c r="P50" s="53"/>
       <c r="Q50" s="49" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AC50" s="19"/>
     </row>
     <row ht="15" r="51">
       <c r="P51" s="53" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q51" s="49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC51" s="19"/>
     </row>
     <row ht="15" r="52">
       <c r="P52" s="53"/>
       <c r="Q52" s="49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AC52" s="19"/>
     </row>
     <row ht="15" r="53">
       <c r="P53" s="53"/>
       <c r="Q53" s="49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AC53" s="19"/>
     </row>
     <row ht="15" r="54">
       <c r="P54" s="53"/>
       <c r="Q54" s="49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC54" s="19"/>
     </row>
     <row ht="15" r="55">
       <c r="P55" s="53"/>
       <c r="Q55" s="49" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AC55" s="19"/>
     </row>
     <row ht="15" r="56">
       <c r="P56" s="53"/>
       <c r="Q56" s="49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC56" s="19"/>
     </row>
     <row ht="15" r="57">
       <c r="P57" s="53"/>
       <c r="Q57" s="49" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AC57" s="19"/>
     </row>
     <row ht="15" r="58">
       <c r="P58" s="53"/>
       <c r="Q58" s="49" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AC58" s="19"/>
     </row>
     <row ht="15" r="59">
       <c r="P59" s="53"/>
       <c r="Q59" s="49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AC59" s="19"/>
     </row>
     <row ht="15" r="60">
       <c r="P60" s="53" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q60" s="49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC60" s="19"/>
     </row>
     <row ht="15" r="61">
       <c r="P61" s="53"/>
       <c r="Q61" s="49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AC61" s="19"/>
     </row>
     <row ht="15" r="62">
       <c r="P62" s="53"/>
       <c r="Q62" s="49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC62" s="19"/>
     </row>
     <row ht="15" r="63">
       <c r="P63" s="53"/>
       <c r="Q63" s="49" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AC63" s="19"/>
     </row>
     <row ht="15" r="64">
       <c r="P64" s="53"/>
       <c r="Q64" s="49" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AC64" s="19"/>
     </row>
     <row ht="15" r="65">
       <c r="P65" s="60"/>
       <c r="Q65" s="56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AC65" s="19"/>
     </row>
@@ -6288,7 +6290,7 @@
     <row ht="27.75" r="1">
       <c r="A1" s="64"/>
       <c r="B1" s="65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>43</v>
@@ -6303,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>25</v>
@@ -6312,7 +6314,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>54</v>
@@ -6320,7 +6322,7 @@
     </row>
     <row ht="105.75" customHeight="1" r="2">
       <c r="A2" s="66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>42</v>
@@ -6347,7 +6349,7 @@
         <v>52</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>55</v>
@@ -6355,807 +6357,807 @@
     </row>
     <row ht="14.25" r="3">
       <c r="E3" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row ht="15" r="4">
       <c r="A4" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I4" s="42"/>
       <c r="K4" s="19"/>
     </row>
     <row ht="15" r="5">
       <c r="A5" s="66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row ht="15" r="6">
       <c r="A6" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="C6" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>427</v>
-      </c>
       <c r="E6" s="69" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>430</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row ht="15" r="7">
       <c r="A7" s="70"/>
       <c r="B7" s="68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row ht="15" r="8">
       <c r="A8" s="70"/>
       <c r="B8" s="68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="15" r="9">
       <c r="A9" s="70"/>
       <c r="B9" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row ht="15" r="10">
       <c r="A10" s="70"/>
       <c r="B10" s="68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row ht="15" r="11">
       <c r="A11" s="70"/>
       <c r="B11" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="15" r="12">
       <c r="A12" s="70"/>
       <c r="B12" s="68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row ht="15" r="13">
       <c r="A13" s="70"/>
       <c r="B13" s="68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="K13" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row ht="15" r="14">
       <c r="A14" s="70"/>
       <c r="B14" s="68" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row ht="15" r="15">
       <c r="A15" s="70"/>
       <c r="B15" s="68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row ht="15" r="16">
       <c r="A16" s="70"/>
       <c r="B16" s="68" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row ht="15" r="17">
       <c r="A17" s="70"/>
       <c r="B17" s="68" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row ht="15" r="18">
       <c r="A18" s="70"/>
       <c r="B18" s="68" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row ht="15" r="19">
       <c r="A19" s="70"/>
       <c r="B19" s="68" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row ht="15" r="20">
       <c r="A20" s="70"/>
       <c r="B20" s="68" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row ht="15" r="21">
       <c r="A21" s="70"/>
       <c r="B21" s="68" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row ht="15" r="22">
       <c r="A22" s="70"/>
       <c r="B22" s="68" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row ht="15" r="23">
       <c r="A23" s="70"/>
       <c r="B23" s="68" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="15" r="24">
       <c r="A24" s="70"/>
       <c r="B24" s="68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row ht="15" r="25">
       <c r="A25" s="70"/>
       <c r="B25" s="68" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row ht="15" r="26">
       <c r="A26" s="70"/>
       <c r="B26" s="68" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row ht="15" r="27">
       <c r="A27" s="70"/>
       <c r="B27" s="71"/>
       <c r="C27" s="68" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row ht="15" r="28">
       <c r="A28" s="70"/>
       <c r="B28" s="71"/>
       <c r="C28" s="68" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row ht="15" r="29">
       <c r="A29" s="70"/>
       <c r="B29" s="71"/>
       <c r="C29" s="68" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row ht="15" r="30">
       <c r="A30" s="70"/>
       <c r="B30" s="71"/>
       <c r="C30" s="68" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row ht="15" r="31">
       <c r="A31" s="70"/>
       <c r="B31" s="71"/>
       <c r="C31" s="68" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row ht="15" r="32">
       <c r="A32" s="70"/>
       <c r="B32" s="71"/>
       <c r="C32" s="68" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row ht="15" r="33">
       <c r="A33" s="70"/>
       <c r="B33" s="71"/>
       <c r="C33" s="68" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K33" s="19"/>
     </row>
@@ -7163,16 +7165,16 @@
       <c r="A34" s="70"/>
       <c r="B34" s="71"/>
       <c r="C34" s="68" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -7180,16 +7182,16 @@
       <c r="A35" s="70"/>
       <c r="B35" s="71"/>
       <c r="C35" s="68" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K35" s="19"/>
     </row>
@@ -7197,16 +7199,16 @@
       <c r="A36" s="70"/>
       <c r="B36" s="71"/>
       <c r="C36" s="68" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K36" s="19"/>
     </row>
@@ -7214,13 +7216,13 @@
       <c r="A37" s="70"/>
       <c r="B37" s="71"/>
       <c r="C37" s="68" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K37" s="19"/>
     </row>
@@ -7228,13 +7230,13 @@
       <c r="A38" s="70"/>
       <c r="B38" s="71"/>
       <c r="C38" s="68" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K38" s="19"/>
     </row>
@@ -7242,13 +7244,13 @@
       <c r="A39" s="70"/>
       <c r="B39" s="71"/>
       <c r="C39" s="68" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -7256,114 +7258,114 @@
       <c r="A40" s="72"/>
       <c r="B40" s="71"/>
       <c r="C40" s="68" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K40" s="19"/>
     </row>
     <row ht="15" r="41">
       <c r="B41" s="71"/>
       <c r="C41" s="68" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K41" s="19"/>
     </row>
     <row ht="15" r="42">
       <c r="B42" s="71"/>
       <c r="C42" s="68" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K42" s="19"/>
     </row>
     <row ht="15" r="43">
       <c r="B43" s="71"/>
       <c r="C43" s="68" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K43" s="19"/>
     </row>
     <row ht="15" r="44">
       <c r="B44" s="71"/>
       <c r="C44" s="68" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D44" s="69" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K44" s="19"/>
     </row>
     <row ht="15" r="45">
       <c r="B45" s="71"/>
       <c r="C45" s="68" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K45" s="19"/>
     </row>
     <row ht="15" r="46">
       <c r="B46" s="71"/>
       <c r="C46" s="68" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D46" s="69" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K46" s="19"/>
     </row>
     <row ht="15" r="47">
       <c r="B47" s="71"/>
       <c r="C47" s="68" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K47" s="19"/>
     </row>
     <row ht="15" r="48">
       <c r="B48" s="71"/>
       <c r="C48" s="68" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="19"/>
       <c r="K48" s="19"/>
@@ -7371,10 +7373,10 @@
     <row ht="15" r="49">
       <c r="B49" s="71"/>
       <c r="C49" s="68" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I49" s="19"/>
       <c r="K49" s="19"/>
@@ -7382,10 +7384,10 @@
     <row ht="15" r="50">
       <c r="B50" s="71"/>
       <c r="C50" s="68" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I50" s="19"/>
       <c r="K50" s="19"/>
@@ -7393,10 +7395,10 @@
     <row ht="15" r="51">
       <c r="B51" s="71"/>
       <c r="C51" s="68" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I51" s="19"/>
       <c r="K51" s="19"/>
@@ -7404,10 +7406,10 @@
     <row ht="15" r="52">
       <c r="B52" s="71"/>
       <c r="C52" s="68" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I52" s="19"/>
       <c r="K52" s="19"/>
@@ -7415,10 +7417,10 @@
     <row ht="15" r="53">
       <c r="B53" s="71"/>
       <c r="C53" s="68" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D53" s="69" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I53" s="19"/>
       <c r="K53" s="19"/>
@@ -7426,10 +7428,10 @@
     <row ht="15" r="54">
       <c r="B54" s="71"/>
       <c r="C54" s="68" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I54" s="19"/>
       <c r="K54" s="19"/>
@@ -7437,10 +7439,10 @@
     <row ht="15" r="55">
       <c r="B55" s="71"/>
       <c r="C55" s="68" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D55" s="69" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I55" s="19"/>
       <c r="K55" s="19"/>
@@ -7448,10 +7450,10 @@
     <row ht="15" r="56">
       <c r="B56" s="71"/>
       <c r="C56" s="68" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I56" s="19"/>
       <c r="K56" s="19"/>
@@ -7459,10 +7461,10 @@
     <row ht="15" r="57">
       <c r="B57" s="71"/>
       <c r="C57" s="68" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I57" s="19"/>
       <c r="K57" s="19"/>
@@ -7470,10 +7472,10 @@
     <row ht="15" r="58">
       <c r="B58" s="71"/>
       <c r="C58" s="68" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I58" s="19"/>
       <c r="K58" s="19"/>
@@ -7481,10 +7483,10 @@
     <row ht="15" r="59">
       <c r="B59" s="71"/>
       <c r="C59" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I59" s="19"/>
       <c r="K59" s="19"/>
@@ -7492,10 +7494,10 @@
     <row ht="15" r="60">
       <c r="B60" s="71"/>
       <c r="C60" s="68" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I60" s="19"/>
       <c r="K60" s="19"/>
@@ -7503,10 +7505,10 @@
     <row ht="15" r="61">
       <c r="B61" s="71"/>
       <c r="C61" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D61" s="69" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I61" s="19"/>
       <c r="K61" s="19"/>
@@ -7514,10 +7516,10 @@
     <row ht="15" r="62">
       <c r="B62" s="71"/>
       <c r="C62" s="68" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I62" s="19"/>
       <c r="K62" s="19"/>
@@ -7525,10 +7527,10 @@
     <row ht="15" r="63">
       <c r="B63" s="71"/>
       <c r="C63" s="68" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I63" s="19"/>
       <c r="K63" s="19"/>
@@ -7536,10 +7538,10 @@
     <row ht="15" r="64">
       <c r="B64" s="71"/>
       <c r="C64" s="68" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I64" s="19"/>
       <c r="K64" s="19"/>
@@ -7547,10 +7549,10 @@
     <row ht="15" r="65">
       <c r="B65" s="71"/>
       <c r="C65" s="68" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I65" s="19"/>
       <c r="K65" s="19"/>
@@ -7558,10 +7560,10 @@
     <row ht="15" r="66">
       <c r="B66" s="71"/>
       <c r="C66" s="68" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I66" s="19"/>
       <c r="K66" s="19"/>
@@ -7569,10 +7571,10 @@
     <row ht="15" r="67">
       <c r="B67" s="71"/>
       <c r="C67" s="68" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I67" s="19"/>
       <c r="K67" s="19"/>
@@ -7580,10 +7582,10 @@
     <row ht="15" r="68">
       <c r="B68" s="71"/>
       <c r="C68" s="68" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D68" s="69" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I68" s="19"/>
       <c r="K68" s="19"/>
@@ -7591,10 +7593,10 @@
     <row ht="15" r="69">
       <c r="B69" s="71"/>
       <c r="C69" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D69" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I69" s="19"/>
       <c r="K69" s="19"/>
@@ -7602,10 +7604,10 @@
     <row ht="15" r="70">
       <c r="B70" s="71"/>
       <c r="C70" s="68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D70" s="69" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I70" s="19"/>
       <c r="K70" s="19"/>
@@ -7613,10 +7615,10 @@
     <row ht="15" r="71">
       <c r="B71" s="71"/>
       <c r="C71" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D71" s="69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I71" s="19"/>
       <c r="K71" s="19"/>
@@ -7624,10 +7626,10 @@
     <row ht="15" r="72">
       <c r="B72" s="71"/>
       <c r="C72" s="68" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I72" s="19"/>
       <c r="K72" s="19"/>
@@ -7635,10 +7637,10 @@
     <row ht="15" r="73">
       <c r="B73" s="71"/>
       <c r="C73" s="68" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I73" s="19"/>
       <c r="K73" s="19"/>
@@ -7646,90 +7648,90 @@
     <row ht="15" r="74">
       <c r="B74" s="71"/>
       <c r="C74" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D74" s="69" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K74" s="19"/>
     </row>
     <row ht="15" r="75">
       <c r="B75" s="71"/>
       <c r="C75" s="68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D75" s="69" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K75" s="19"/>
     </row>
     <row ht="15" r="76">
       <c r="B76" s="71"/>
       <c r="C76" s="68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D76" s="69" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K76" s="19"/>
     </row>
     <row ht="15" r="77">
       <c r="B77" s="71"/>
       <c r="C77" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K77" s="19"/>
     </row>
     <row ht="15" r="78">
       <c r="B78" s="71"/>
       <c r="C78" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K78" s="19"/>
     </row>
     <row ht="15" r="79">
       <c r="B79" s="71"/>
       <c r="C79" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K79" s="19"/>
     </row>
     <row ht="15" r="80">
       <c r="B80" s="71"/>
       <c r="C80" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D80" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K80" s="19"/>
     </row>
     <row ht="15" r="81">
       <c r="B81" s="71"/>
       <c r="C81" s="68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K81" s="19"/>
     </row>
     <row ht="15" r="82">
       <c r="B82" s="71"/>
       <c r="C82" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K82" s="19"/>
     </row>
@@ -7737,7 +7739,7 @@
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
       <c r="D83" s="69" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K83" s="19"/>
     </row>
@@ -7745,7 +7747,7 @@
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
       <c r="D84" s="69" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K84" s="19"/>
     </row>
@@ -7753,7 +7755,7 @@
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
       <c r="D85" s="69" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K85" s="19"/>
     </row>
@@ -7761,7 +7763,7 @@
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
       <c r="D86" s="69" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K86" s="19"/>
     </row>
@@ -7769,7 +7771,7 @@
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
       <c r="D87" s="69" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K87" s="19"/>
     </row>
@@ -7777,7 +7779,7 @@
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
       <c r="D88" s="69" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K88" s="19"/>
     </row>
@@ -7785,7 +7787,7 @@
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
       <c r="D89" s="69" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K89" s="19"/>
     </row>
@@ -7793,7 +7795,7 @@
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
       <c r="D90" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K90" s="19"/>
     </row>
@@ -7801,7 +7803,7 @@
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
       <c r="D91" s="69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K91" s="19"/>
     </row>
@@ -7809,7 +7811,7 @@
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
       <c r="D92" s="69" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K92" s="19"/>
     </row>
@@ -7817,7 +7819,7 @@
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
       <c r="D93" s="69" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K93" s="19"/>
     </row>
@@ -7825,7 +7827,7 @@
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
       <c r="D94" s="69" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K94" s="19"/>
     </row>
@@ -7833,7 +7835,7 @@
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
       <c r="D95" s="69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K95" s="19"/>
     </row>
@@ -7841,7 +7843,7 @@
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
       <c r="D96" s="69" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K96" s="19"/>
     </row>
@@ -7849,7 +7851,7 @@
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
       <c r="D97" s="69" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K97" s="19"/>
     </row>
@@ -7857,7 +7859,7 @@
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="69" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K98" s="19"/>
     </row>
@@ -7865,7 +7867,7 @@
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
       <c r="D99" s="69" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K99" s="19"/>
     </row>
@@ -7873,7 +7875,7 @@
       <c r="B100" s="71"/>
       <c r="C100" s="71"/>
       <c r="D100" s="69" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K100" s="19"/>
     </row>
@@ -7881,7 +7883,7 @@
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
       <c r="D101" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K101" s="19"/>
     </row>
@@ -7889,7 +7891,7 @@
       <c r="B102" s="71"/>
       <c r="C102" s="71"/>
       <c r="D102" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K102" s="19"/>
     </row>
@@ -7897,7 +7899,7 @@
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
       <c r="D103" s="69" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K103" s="19"/>
     </row>
@@ -7905,7 +7907,7 @@
       <c r="B104" s="71"/>
       <c r="C104" s="71"/>
       <c r="D104" s="69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K104" s="19"/>
     </row>
@@ -7913,7 +7915,7 @@
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K105" s="19"/>
     </row>
@@ -7921,7 +7923,7 @@
       <c r="B106" s="71"/>
       <c r="C106" s="71"/>
       <c r="D106" s="69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K106" s="19"/>
     </row>
@@ -7929,7 +7931,7 @@
       <c r="B107" s="71"/>
       <c r="C107" s="71"/>
       <c r="D107" s="69" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K107" s="19"/>
     </row>
@@ -7937,7 +7939,7 @@
       <c r="B108" s="71"/>
       <c r="C108" s="71"/>
       <c r="D108" s="69" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K108" s="19"/>
     </row>
@@ -7945,7 +7947,7 @@
       <c r="B109" s="71"/>
       <c r="C109" s="71"/>
       <c r="D109" s="69" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K109" s="19"/>
     </row>
@@ -7953,196 +7955,196 @@
       <c r="B110" s="71"/>
       <c r="C110" s="71"/>
       <c r="D110" s="69" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row ht="15" r="111">
       <c r="B111" s="71"/>
       <c r="C111" s="71"/>
       <c r="D111" s="69" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row ht="15" r="112">
       <c r="B112" s="71"/>
       <c r="C112" s="71"/>
       <c r="D112" s="69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row ht="15" r="113">
       <c r="B113" s="71"/>
       <c r="C113" s="71"/>
       <c r="D113" s="69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row ht="15" r="114">
       <c r="B114" s="71"/>
       <c r="C114" s="71"/>
       <c r="D114" s="69" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row ht="15" r="115">
       <c r="B115" s="71"/>
       <c r="C115" s="71"/>
       <c r="D115" s="69" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row ht="15" r="116">
       <c r="B116" s="71"/>
       <c r="C116" s="71"/>
       <c r="D116" s="69" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row ht="15" r="117">
       <c r="B117" s="71"/>
       <c r="C117" s="71"/>
       <c r="D117" s="69" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row ht="15" r="118">
       <c r="B118" s="71"/>
       <c r="C118" s="71"/>
       <c r="D118" s="69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row ht="15" r="119">
       <c r="B119" s="71"/>
       <c r="C119" s="71"/>
       <c r="D119" s="69" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row ht="15" r="120">
       <c r="B120" s="71"/>
       <c r="C120" s="71"/>
       <c r="D120" s="69" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row ht="15" r="121">
       <c r="B121" s="71"/>
       <c r="C121" s="71"/>
       <c r="D121" s="69" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row ht="15" r="122">
       <c r="B122" s="71"/>
       <c r="C122" s="71"/>
       <c r="D122" s="69" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row ht="15" r="123">
       <c r="B123" s="71"/>
       <c r="C123" s="71"/>
       <c r="D123" s="69" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row ht="15" r="124">
       <c r="B124" s="71"/>
       <c r="C124" s="71"/>
       <c r="D124" s="69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row ht="15" r="125">
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="69" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row ht="15" r="126">
       <c r="B126" s="71"/>
       <c r="C126" s="71"/>
       <c r="D126" s="69" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row ht="15" r="127">
       <c r="B127" s="71"/>
       <c r="C127" s="71"/>
       <c r="D127" s="69" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row ht="15" r="128">
       <c r="B128" s="71"/>
       <c r="C128" s="71"/>
       <c r="D128" s="69" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row ht="15" r="129">
       <c r="B129" s="71"/>
       <c r="C129" s="71"/>
       <c r="D129" s="69" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row ht="15" r="130">
       <c r="B130" s="71"/>
       <c r="C130" s="71"/>
       <c r="D130" s="69" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row ht="15" r="131">
       <c r="B131" s="71"/>
       <c r="C131" s="71"/>
       <c r="D131" s="69" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row ht="15" r="132">
       <c r="B132" s="71"/>
       <c r="C132" s="71"/>
       <c r="D132" s="69" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row ht="15" r="133">
       <c r="B133" s="71"/>
       <c r="C133" s="71"/>
       <c r="D133" s="69" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row ht="15" r="134">
       <c r="B134" s="71"/>
       <c r="C134" s="71"/>
       <c r="D134" s="69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row ht="15" r="135">
       <c r="B135" s="71"/>
       <c r="C135" s="71"/>
       <c r="D135" s="69" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row ht="15" r="136">
       <c r="B136" s="71"/>
       <c r="C136" s="71"/>
       <c r="D136" s="69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row ht="15" r="137">
       <c r="B137" s="71"/>
       <c r="C137" s="71"/>
       <c r="D137" s="69" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
